--- a/Tools and meta-analysis theory/Scholar-bot/data/merged_data.xlsx
+++ b/Tools and meta-analysis theory/Scholar-bot/data/merged_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hso20\OneDrive\Plocha\IES\Diploma-Thesis\Tools and meta-analysis theory\Scholar-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCE17E4-7A46-4E55-A966-FDA6BC7F0112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88E69B-1AC2-428A-8B3A-7216FC6224EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged" sheetId="1" r:id="rId1"/>
@@ -9279,6 +9279,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9625,8 +9627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="J297" sqref="J297"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
